--- a/確認事項一覧.xlsx
+++ b/確認事項一覧.xlsx
@@ -1,39 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yukiy\OneDrive\デスクトップ\NIC\議事録\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yukiy\udemiy_git_code\git_tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F97E7729-E75C-4E4B-9C0C-A1D6D1E7E9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4C0C5D-5E94-4B96-89D0-4C2093680CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{1477AD4C-A3BF-4BB7-A871-0D1BB6D9014E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>確認事項</t>
     <rPh sb="0" eb="4">
@@ -166,95 +159,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アップロードデータの項目は変更されるか。</t>
-    <rPh sb="10" eb="12">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山中代筆
-頻度は数年に１度レベルの想定だが、変更の可能性はある。
-年度内での項目変更はない。</t>
-    <rPh sb="0" eb="4">
-      <t>ヤマナカダイヒツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒンド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>スウネン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>カノウセイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ネンド</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="38" eb="42">
-      <t>コウモクヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アップロードチェック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アップロードの際のチェックはどこまで行うか。
-アップロードデータの中身が具体的に決まり次第、詳細を詰める形。</t>
-    <rPh sb="7" eb="8">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ナカミ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>グタイテキ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シダイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>カタチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アップロード項目のマスタデータ</t>
-    <rPh sb="6" eb="8">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アップロード状況</t>
     <rPh sb="6" eb="8">
       <t>ジョウキョウ</t>
@@ -262,232 +166,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>確認範囲</t>
-    <rPh sb="0" eb="4">
-      <t>カクニンハンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アップロード状況の確認範囲は以下の通りで問題ないか</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>カクニンハンイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認・確定フロー</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JAがアップロードした内容について、県域・本店での確認・確定作業は必要か。</t>
-    <rPh sb="11" eb="13">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケンイキ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ホンテン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="28" eb="32">
-      <t>カクテイサギョウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山中代筆
-JAモニの確認・確定フローのような、ガチガチの機能は不要。
-ただし、上位組織が確認したことが分かるような仕組みは欲しい。</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマナカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ダイヒツ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>フヨウ</t>
-    </rPh>
-    <rPh sb="39" eb="43">
-      <t>ジョウイソシキ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ホ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ダウンロード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>閲覧方法</t>
-    <rPh sb="0" eb="4">
-      <t>エツランホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WebからデータをDL⇒テンプレ(金庫作成）へ貼り付けて閲覧する形式でよいか
-WebQueryなどから参照させるような仕組みは不要か。</t>
-    <rPh sb="17" eb="21">
-      <t>キンコサクセイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>フヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山中代筆
-よい。WebQueryの対応は不要。</t>
-    <rPh sb="0" eb="4">
-      <t>ヤマナカダイヒツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>フヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DL可能範囲</t>
-    <rPh sb="2" eb="6">
-      <t>カノウハンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DLデータの中身</t>
-    <rPh sb="6" eb="8">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アップロードされたデータは特段加工（合計・平均など）せず、県単位・全国単位で抽出する形か。
-データの加工も必要か。</t>
-    <rPh sb="13" eb="15">
-      <t>トクダン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カコウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>ケンタンイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ゼンコク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>チュウシュツ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>カコウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山中代筆
-加工は必要なく、アップロードされたデータを県単位・全国単位で取得できれば良いです。</t>
-    <rPh sb="0" eb="4">
-      <t>ヤマナカダイヒツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>ケンタンイ</t>
-    </rPh>
-    <rPh sb="30" eb="34">
-      <t>ゼンコクタンイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ヨ</t>
-    </rPh>
+    <t>faefaeopfjaewofja</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -857,7 +540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619B6E1B-44A0-4384-A124-57F5F7B689D2}">
   <dimension ref="B3:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="C7:H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -919,112 +604,79 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FA78CF-3C0E-4644-ABB7-D25F24E2ACC6}">
+  <dimension ref="D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>